--- a/asset/wordbook.xlsx
+++ b/asset/wordbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Chonnam National University\work\web_clock\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{1DBAF912-3B30-4942-A042-53F2B0FFC6EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{AF9511C4-4EEC-41F3-B718-FA6CB09C511B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1275" yWindow="465" windowWidth="24285" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="465" windowWidth="24285" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="단어장" sheetId="1" r:id="rId1"/>
@@ -16950,8 +16950,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1438" workbookViewId="0">
-      <selection activeCell="A1444" sqref="A1444"/>
+    <sheetView tabSelected="1" topLeftCell="A1441" workbookViewId="0">
+      <selection activeCell="C1468" sqref="C1468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
